--- a/Topics & content.xlsx
+++ b/Topics & content.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santosh.kumarachary\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\MY_REPO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <r>
       <rPr>
@@ -421,6 +421,9 @@
   </si>
   <si>
     <t>https://javarevisited.blogspot.com/</t>
+  </si>
+  <si>
+    <t>COLLECTIONS</t>
   </si>
 </sst>
 </file>
@@ -871,9 +874,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -881,17 +884,21 @@
   <cols>
     <col min="1" max="1" width="88" customWidth="1"/>
     <col min="2" max="2" width="99.6640625" customWidth="1"/>
+    <col min="3" max="3" width="71.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>14</v>
       </c>
+      <c r="C1" s="13" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -899,7 +906,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="137.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="137.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>17</v>
       </c>

--- a/Topics & content.xlsx
+++ b/Topics & content.xlsx
@@ -31,32 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OOPS</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t xml:space="preserve">Persistent object life cycle
 Connecting to multiple DB
@@ -425,31 +400,43 @@
   <si>
     <t>COLLECTIONS</t>
   </si>
+  <si>
+    <t>JVM ARCHITECTURE</t>
+  </si>
+  <si>
+    <t>SERIALIZATION</t>
+  </si>
+  <si>
+    <t>EXCEPTION HANDLING</t>
+  </si>
+  <si>
+    <t>ACCESS SPECIFIER</t>
+  </si>
+  <si>
+    <t>INTERFACE</t>
+  </si>
+  <si>
+    <t>ABSTRACT CLASS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OOPS
+</t>
+  </si>
+  <si>
+    <t>STRING</t>
+  </si>
+  <si>
+    <t>OBJECT CLASS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -552,45 +539,42 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -874,10 +858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -885,30 +869,62 @@
     <col min="1" max="1" width="88" customWidth="1"/>
     <col min="2" max="2" width="99.6640625" customWidth="1"/>
     <col min="3" max="3" width="71.33203125" customWidth="1"/>
+    <col min="4" max="4" width="39.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" customWidth="1"/>
+    <col min="7" max="7" width="29.109375" customWidth="1"/>
+    <col min="8" max="8" width="20.109375" customWidth="1"/>
+    <col min="9" max="9" width="32.33203125" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" customWidth="1"/>
+    <col min="11" max="11" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>18</v>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="3" spans="1:11" ht="137.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="137.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -933,11 +949,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="406.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -963,17 +979,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="381" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1016,43 +1032,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="9"/>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:10" ht="407.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1084,8 +1100,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>11</v>
+      <c r="A1" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Topics & content.xlsx
+++ b/Topics & content.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t xml:space="preserve">Persistent object life cycle
 Connecting to multiple DB
@@ -427,6 +427,9 @@
   </si>
   <si>
     <t>OBJECT CLASS</t>
+  </si>
+  <si>
+    <t>ACCESS MODIFIERS</t>
   </si>
 </sst>
 </file>
@@ -858,10 +861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -879,7 +882,7 @@
     <col min="11" max="11" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>24</v>
       </c>
@@ -887,34 +890,37 @@
         <v>13</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -922,7 +928,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="137.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="137.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>16</v>
       </c>

--- a/Topics & content.xlsx
+++ b/Topics & content.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t xml:space="preserve">Persistent object life cycle
 Connecting to multiple DB
@@ -430,6 +430,20 @@
   </si>
   <si>
     <t>ACCESS MODIFIERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.public final Class&lt;?&gt; getClass()
+2.public int hashCode()
+3.public boolean equals(Object obj)
+4.protected Object clone() throws CloneNotSupportedException
+5.public String toString()
+6.protected void finalize() throws Throwable
+7.public final void wait() throws InterruptedException
+8.public final void wait(long timeout) throws InterruptedException
+9.public final void wait(long timeout,int nanos) throws InterruptedException
+10.public final void notify()
+11.public final void notifyAll()
+</t>
   </si>
 </sst>
 </file>
@@ -861,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -872,7 +886,7 @@
     <col min="1" max="1" width="88" customWidth="1"/>
     <col min="2" max="2" width="99.6640625" customWidth="1"/>
     <col min="3" max="3" width="71.33203125" customWidth="1"/>
-    <col min="4" max="4" width="39.33203125" customWidth="1"/>
+    <col min="4" max="4" width="81.88671875" customWidth="1"/>
     <col min="5" max="5" width="23.6640625" customWidth="1"/>
     <col min="6" max="6" width="29.6640625" customWidth="1"/>
     <col min="7" max="7" width="29.109375" customWidth="1"/>
@@ -880,9 +894,10 @@
     <col min="9" max="9" width="32.33203125" customWidth="1"/>
     <col min="10" max="10" width="17.33203125" customWidth="1"/>
     <col min="11" max="11" width="17.5546875" customWidth="1"/>
+    <col min="20" max="20" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>24</v>
       </c>
@@ -892,6 +907,9 @@
       <c r="C1" s="6" t="s">
         <v>27</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="L1" s="6" t="s">
         <v>17</v>
       </c>
@@ -916,19 +934,19 @@
       <c r="S1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="6" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="2" spans="1:20" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="D2" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="3" spans="1:20" ht="137.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="137.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>16</v>
       </c>

--- a/Topics & content.xlsx
+++ b/Topics & content.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="9732"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="9732" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Core Java_SCJP" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t xml:space="preserve">Persistent object life cycle
 Connecting to multiple DB
@@ -444,6 +444,39 @@
 10.public final void notify()
 11.public final void notifyAll()
 </t>
+  </si>
+  <si>
+    <t>Structural Design Patterns
+      Adapter Pattern
+      Composite Pattern
+      Proxy Pattern
+      Flyweight Pattern
+      Facade Pattern
+      Bridge Pattern
+      Decorator Pattern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creational Design Patterns
+      Singleton Pattern
+      Factory Pattern
+      Abstract Factory Pattern
+      Builder Pattern
+      Prototype Pattern
+</t>
+  </si>
+  <si>
+    <t>Behavioral Design Patterns
+      Template Method Pattern
+      Mediator Pattern
+      Chain of Responsibility Pattern
+      Observer Pattern
+      Strategy Pattern
+      Command Pattern
+      State Pattern
+      Visitor Pattern
+      Interpreter Pattern
+      Iterator Pattern
+      Memento Pattern</t>
   </si>
 </sst>
 </file>
@@ -877,7 +910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+    <sheetView topLeftCell="D2" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1024,18 +1057,33 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="58" customWidth="1"/>
+    <col min="2" max="2" width="42.109375" customWidth="1"/>
+    <col min="3" max="3" width="42.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1" spans="1:3" ht="249.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Topics & content.xlsx
+++ b/Topics & content.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="9732" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="9732"/>
   </bookViews>
   <sheets>
     <sheet name="Core Java_SCJP" sheetId="6" r:id="rId1"/>
@@ -910,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -927,6 +927,13 @@
     <col min="9" max="9" width="32.33203125" customWidth="1"/>
     <col min="10" max="10" width="17.33203125" customWidth="1"/>
     <col min="11" max="11" width="17.5546875" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.21875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1059,7 +1066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>

--- a/Topics & content.xlsx
+++ b/Topics & content.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t xml:space="preserve">Persistent object life cycle
 Connecting to multiple DB
@@ -477,6 +477,48 @@
       Interpreter Pattern
       Iterator Pattern
       Memento Pattern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. How does HashMap work in Java?
+2. What is the difference between poll() and remove() method of Queue interface?
+3. What is the difference between fail-fast and fail-safe Iterators?
+4. How do you remove an entry from a Collection? and subsequently what is the difference between the remove() method of Collection and remove() method of Iterator, which one you will use while removing elements during iteration?
+5. What is the difference between Synchronized Collection and Concurrent Collection?
+6. What is the difference between Iterator and Enumeration?
+7. How does HashSet is implemented in Java, How does it use Hashing? 
+8. What do you need to do to use a custom object as a key in Collection classes like Map or Set?
+9. The difference between HashMap and Hashtable?
+10. When do you use ConcurrentHashMap in Java?
+11. What is the difference between Set and List in Java?
+12. How do you Sort objects on the collection?
+13. What is the difference between Vector and ArrayList?
+14. What is the difference between HashMap and HashSet?
+15. What is NavigableMap in Java? What is a benefit over Map?
+16. Which one you will prefer between Array and ArrayList for Storing object and why?
+17. Can we replace Hashtable with ConcurrentHashMap?
+18. What is CopyOnWriteArrayList, how it is different than ArrayList and Vector?
+19. Why ListIterator has added() method but Iterator doesn't or Why to add() method is declared in ListIterator and not on Iterator.
+20. When does ConcurrentModificationException occur on iteration? 
+21. Difference between Set, List and Map Collection classes?
+22. What is BlockingQueue, how it is different than other collection classes?
+23. How does LinkedList is implemented in Java, is it a Singly or Doubly linked list?
+24. How do you iterator over Synchronized HashMap, do you need to lock iteration and why?
+25. What is Deque? when do you use it?
+</t>
+  </si>
+  <si>
+    <t>LIST
+  ArrayList
+  Vector
+  LinkedList
+SET
+  HashSet
+  LinkedHashSet
+  TreeSet
+MAP
+  HashMap
+  HashTable
+  TreeMap</t>
   </si>
 </sst>
 </file>
@@ -910,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -920,7 +962,7 @@
     <col min="2" max="2" width="99.6640625" customWidth="1"/>
     <col min="3" max="3" width="71.33203125" customWidth="1"/>
     <col min="4" max="4" width="81.88671875" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="82.44140625" customWidth="1"/>
     <col min="6" max="6" width="29.6640625" customWidth="1"/>
     <col min="7" max="7" width="29.109375" customWidth="1"/>
     <col min="8" max="8" width="20.109375" customWidth="1"/>
@@ -950,7 +992,7 @@
       <c r="D1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>17</v>
       </c>
       <c r="M1" s="6" t="s">
@@ -985,10 +1027,16 @@
       <c r="D2" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="E2" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" ht="137.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="321" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>16</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Topics & content.xlsx
+++ b/Topics & content.xlsx
@@ -950,10 +950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -965,7 +965,7 @@
     <col min="5" max="5" width="82.44140625" customWidth="1"/>
     <col min="6" max="6" width="29.6640625" customWidth="1"/>
     <col min="7" max="7" width="29.109375" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" customWidth="1"/>
+    <col min="8" max="8" width="25.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="32.33203125" customWidth="1"/>
     <col min="10" max="10" width="17.33203125" customWidth="1"/>
     <col min="11" max="11" width="17.5546875" customWidth="1"/>
@@ -979,7 +979,7 @@
     <col min="20" max="20" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>24</v>
       </c>
@@ -995,29 +995,29 @@
       <c r="E1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="321" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="321" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>16</v>
       </c>

--- a/Topics & content.xlsx
+++ b/Topics & content.xlsx
@@ -952,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -968,7 +968,7 @@
     <col min="8" max="8" width="25.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="32.33203125" customWidth="1"/>
     <col min="10" max="10" width="17.33203125" customWidth="1"/>
-    <col min="11" max="11" width="17.5546875" customWidth="1"/>
+    <col min="11" max="11" width="24" customWidth="1"/>
     <col min="12" max="12" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.21875" bestFit="1" customWidth="1"/>

--- a/Topics & content.xlsx
+++ b/Topics & content.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="9732"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="9732" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Core Java_SCJP" sheetId="6" r:id="rId1"/>
@@ -952,7 +952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
@@ -1114,7 +1114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>

--- a/Topics & content.xlsx
+++ b/Topics & content.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\MY_REPO\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="9732" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="9730"/>
   </bookViews>
   <sheets>
     <sheet name="Core Java_SCJP" sheetId="6" r:id="rId1"/>
@@ -22,8 +17,8 @@
     <sheet name="Jsp" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -31,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t xml:space="preserve">Persistent object life cycle
 Connecting to multiple DB
@@ -395,9 +390,6 @@
 10.MultiThreading Enhancement</t>
   </si>
   <si>
-    <t>https://javarevisited.blogspot.com/</t>
-  </si>
-  <si>
     <t>COLLECTIONS</t>
   </si>
   <si>
@@ -520,12 +512,34 @@
   HashTable
   TreeMap</t>
   </si>
+  <si>
+    <t xml:space="preserve">https://javarevisited.blogspot.com/
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://softwareengineering.stackexchange.com/questions/143736/why-do-we-need-private-variables
+</t>
+  </si>
+  <si>
+    <t>encapsulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=YX1UoMz3_1Y
+</t>
+  </si>
+  <si>
+    <t>java interview questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=1Q4I63-hKcY
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -634,7 +648,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -662,11 +676,20 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -730,7 +753,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -765,7 +788,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -942,82 +965,82 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="88" customWidth="1"/>
-    <col min="2" max="2" width="99.6640625" customWidth="1"/>
-    <col min="3" max="3" width="71.33203125" customWidth="1"/>
-    <col min="4" max="4" width="81.88671875" customWidth="1"/>
-    <col min="5" max="5" width="82.44140625" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" customWidth="1"/>
-    <col min="7" max="7" width="29.109375" customWidth="1"/>
-    <col min="8" max="8" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.33203125" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="99.6328125" customWidth="1"/>
+    <col min="3" max="3" width="71.36328125" customWidth="1"/>
+    <col min="4" max="4" width="81.90625" customWidth="1"/>
+    <col min="5" max="5" width="82.453125" customWidth="1"/>
+    <col min="6" max="6" width="29.6328125" customWidth="1"/>
+    <col min="7" max="7" width="29.08984375" customWidth="1"/>
+    <col min="8" max="8" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.36328125" customWidth="1"/>
+    <col min="10" max="10" width="17.36328125" customWidth="1"/>
     <col min="11" max="11" width="24" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.54296875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.44140625" customWidth="1"/>
+    <col min="17" max="17" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:12" ht="18" customHeight="1">
+      <c r="A1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="2" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="409.5" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -1025,42 +1048,71 @@
         <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="22" customHeight="1">
+      <c r="A3" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>33</v>
       </c>
+      <c r="E3" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" ht="321" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>32</v>
+    <row r="4" spans="1:12" ht="29">
+      <c r="A4" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="29">
+      <c r="A5" s="14"/>
+      <c r="B5" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="29">
+      <c r="A6" s="14"/>
+      <c r="B6" s="13" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:A6"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink ref="B6" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="102.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="103.88671875" customWidth="1"/>
+    <col min="1" max="1" width="102.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="103.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="406.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="406.5" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>11</v>
       </c>
@@ -1075,22 +1127,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="59.88671875" customWidth="1"/>
-    <col min="2" max="2" width="54.109375" customWidth="1"/>
-    <col min="3" max="3" width="51.6640625" customWidth="1"/>
-    <col min="4" max="4" width="51.5546875" customWidth="1"/>
+    <col min="1" max="1" width="59.90625" customWidth="1"/>
+    <col min="2" max="2" width="54.08984375" customWidth="1"/>
+    <col min="3" max="3" width="51.6328125" customWidth="1"/>
+    <col min="4" max="4" width="51.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="381" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="381" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1111,29 +1163,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="58" customWidth="1"/>
-    <col min="2" max="2" width="42.109375" customWidth="1"/>
-    <col min="3" max="3" width="42.21875" customWidth="1"/>
+    <col min="2" max="2" width="42.08984375" customWidth="1"/>
+    <col min="3" max="3" width="42.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="249.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="249.65" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1143,22 +1193,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="55.5546875" customWidth="1"/>
-    <col min="2" max="2" width="57.6640625" customWidth="1"/>
-    <col min="3" max="3" width="44.5546875" customWidth="1"/>
-    <col min="4" max="4" width="52.109375" customWidth="1"/>
+    <col min="1" max="1" width="55.54296875" customWidth="1"/>
+    <col min="2" max="2" width="57.6328125" customWidth="1"/>
+    <col min="3" max="3" width="44.54296875" customWidth="1"/>
+    <col min="4" max="4" width="52.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="21">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -1177,7 +1227,7 @@
       <c r="H1" s="7"/>
       <c r="I1" s="8"/>
     </row>
-    <row r="2" spans="1:10" ht="407.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="407.25" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -1204,29 +1254,29 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="74.6640625" customWidth="1"/>
+    <col min="1" max="1" width="74.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="409.5" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -1238,12 +1288,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Topics & content.xlsx
+++ b/Topics & content.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="9730"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="9730" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Core Java_SCJP" sheetId="6" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="JDBC" sheetId="3" r:id="rId6"/>
     <sheet name="Servlets" sheetId="4" r:id="rId7"/>
     <sheet name="Jsp" sheetId="5" r:id="rId8"/>
+    <sheet name="Data Structures" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t xml:space="preserve">Persistent object life cycle
 Connecting to multiple DB
@@ -375,21 +376,6 @@
     </r>
   </si>
   <si>
-    <t>1.Introduction
-     Multitasking
-          Process based multitasking
-          Thread based multitasking
-2.Defining a Thread
-3.Getting and setting name of the thread
-4.Thread priorities
-5.The methods to prevent thread Execution
-6.Synchronization
-7.Inter Thread Communication
-8.Deadlock
-9.Deamon Threads
-10.MultiThreading Enhancement</t>
-  </si>
-  <si>
     <t>COLLECTIONS</t>
   </si>
   <si>
@@ -402,13 +388,7 @@
     <t>EXCEPTION HANDLING</t>
   </si>
   <si>
-    <t>ACCESS SPECIFIER</t>
-  </si>
-  <si>
     <t>INTERFACE</t>
-  </si>
-  <si>
-    <t>ABSTRACT CLASS</t>
   </si>
   <si>
     <t xml:space="preserve">OOPS
@@ -533,6 +513,126 @@
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=1Q4I63-hKcY
 </t>
+  </si>
+  <si>
+    <t>Abstraction</t>
+  </si>
+  <si>
+    <t>https://javarevisited.blogspot.com/2013/04/10-abstract-class-and-interface-interview-question-java-answers.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://javarevisited.blogspot.com/2010/10/abstraction-in-java.html#axzz5fSbEFhFx
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dzone.com/articles/programming-when-use
+</t>
+  </si>
+  <si>
+    <t>1.Introduction
+     Multitasking
+          Process based multitasking
+          Thread based multitasking
+2.Defining a Thread
+      -by extending thread class
+            case 1:Thread Scheduler
+            case 2:difference between thread myThread.start() and myThread.run() mehtod
+            case 3:Importance of Thread class start() method
+            case 4:Overloading of run() method
+            case 5:Not Overidding of run() method
+            case 6:Overidding start() method
+            case 7:Overidding start() method and calling super.start() method inside that
+            case 8:Thread life cycle
+            case 9:IllegalThreadStateException
+     -by implementing Runnable interface
+3.Getting and setting name of the thread
+4.Thread priorities
+5.The methods to prevent thread Execution
+6.Synchronization
+7.Inter Thread Communication
+8.Deadlock
+9.Deamon Threads
+10.MultiThreading Enhancement
+     ThreadGroup
+     Concurrent package
+     ThreadPool
+     ThreadLocal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.class level modifier
+  for outer class
+     publlic
+     default
+     abstract
+     final
+     strictfp
+  for inner class
+     publlic
+     default
+     abstract
+     final
+     strictfp
+          +
+     private
+     protected
+     static
+2.member level modifier
+     publlic
+     private
+     default
+     protected
+     abstract
+     final
+     strictfp
+     static
+     synchronized
+     native
+     transient
+     volatile
+     </t>
+  </si>
+  <si>
+    <t>1.introduction
+2.Interface declaration and implemenation
+3.extends vs implements
+4.interface methods
+5.interface variables
+6.interface naming conflicts
+     method naming conflicts
+     varibale naming conflicts
+7.marker interface
+8.adapter class
+9.interface vs abstract class vs concrete class
+10.difference between interface and abstract class
+11.various important conclusions</t>
+  </si>
+  <si>
+    <t>1.introduction
+2.runtime stack mechanism
+3.default exception handling in java
+4.exception heirachy
+5.customized exception handling in java
+6.control flow in try catch
+7.methods to print exception information
+8.try with multiple cach blocks
+9.finally block
+10.final vs finally vs finalize
+11.control flow in try catch finally
+12.control flow in nested try catch finally
+13.various possible combinaion of try catch finally
+14.throw keyword
+15.throws keyword
+16.various possible compile time errors in exception handling
+17.Exception handling keyword summary
+18.customized exception
+19.top 10 exceptions
+20.1.7 version enhanements in exception handling</t>
+  </si>
+  <si>
+    <t>Linked List
+Stack
+Queue
+ArrayList</t>
   </si>
 </sst>
 </file>
@@ -648,7 +748,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -691,6 +791,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -965,7 +1066,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -973,10 +1074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -987,14 +1088,14 @@
     <col min="4" max="4" width="81.90625" customWidth="1"/>
     <col min="5" max="5" width="82.453125" customWidth="1"/>
     <col min="6" max="6" width="29.6328125" customWidth="1"/>
-    <col min="7" max="7" width="29.08984375" customWidth="1"/>
+    <col min="7" max="7" width="124.453125" customWidth="1"/>
     <col min="8" max="8" width="25.54296875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="32.36328125" customWidth="1"/>
     <col min="10" max="10" width="17.36328125" customWidth="1"/>
     <col min="11" max="11" width="24" customWidth="1"/>
     <col min="12" max="12" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="112.90625" customWidth="1"/>
+    <col min="14" max="14" width="36.26953125" customWidth="1"/>
     <col min="15" max="15" width="25.54296875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.54296875" bestFit="1" customWidth="1"/>
@@ -1002,101 +1103,129 @@
     <col min="20" max="20" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" customHeight="1">
+    <row r="1" spans="1:14" ht="18" customHeight="1">
       <c r="A1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="H1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="409.5" customHeight="1">
+      <c r="N1" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="409.5" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>41</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="M2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="22" customHeight="1">
+      <c r="A3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="29">
+      <c r="A4" s="15" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="22" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="B4" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="29">
+      <c r="A5" s="15"/>
+      <c r="B5" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="29">
+      <c r="A6" s="15"/>
+      <c r="B6" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="28" customHeight="1">
+      <c r="A7" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="29">
-      <c r="A4" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="29">
-      <c r="A5" s="14"/>
-      <c r="B5" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="29">
-      <c r="A6" s="14"/>
-      <c r="B6" s="13" t="s">
+    </row>
+    <row r="8" spans="1:14" ht="29">
+      <c r="A8" s="15"/>
+      <c r="B8" s="13" t="s">
         <v>38</v>
       </c>
     </row>
+    <row r="9" spans="1:14" ht="29">
+      <c r="A9" s="15"/>
+      <c r="B9" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="B4" r:id="rId2"/>
     <hyperlink ref="B5" r:id="rId3"/>
     <hyperlink ref="B6" r:id="rId4"/>
+    <hyperlink ref="B7" r:id="rId5"/>
+    <hyperlink ref="B8" r:id="rId6" location="axzz5fSbEFhFx&#10;"/>
+    <hyperlink ref="B9" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -1104,7 +1233,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -1177,13 +1308,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="249.65" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1196,8 +1327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1297,4 +1428,27 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="45.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" ht="229.5" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Topics & content.xlsx
+++ b/Topics & content.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="9730" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="9730" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Core Java_SCJP" sheetId="6" r:id="rId1"/>
     <sheet name="core java programs" sheetId="8" r:id="rId2"/>
-    <sheet name="Hibernate" sheetId="1" r:id="rId3"/>
+    <sheet name="Data Structures" sheetId="10" r:id="rId3"/>
     <sheet name="Design Pattern" sheetId="9" r:id="rId4"/>
-    <sheet name="Spring" sheetId="2" r:id="rId5"/>
-    <sheet name="JDBC" sheetId="3" r:id="rId6"/>
-    <sheet name="Servlets" sheetId="4" r:id="rId7"/>
-    <sheet name="Jsp" sheetId="5" r:id="rId8"/>
-    <sheet name="Data Structures" sheetId="10" r:id="rId9"/>
+    <sheet name="Hibernate" sheetId="1" r:id="rId5"/>
+    <sheet name="Spring" sheetId="2" r:id="rId6"/>
+    <sheet name="JDBC" sheetId="3" r:id="rId7"/>
+    <sheet name="Servlets" sheetId="4" r:id="rId8"/>
+    <sheet name="Jsp" sheetId="5" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -632,7 +632,9 @@
     <t>Linked List
 Stack
 Queue
-ArrayList</t>
+ArrayList
+HashMap
+Binary Search Tree</t>
   </si>
 </sst>
 </file>
@@ -788,10 +790,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1066,7 +1068,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1171,7 +1173,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="29">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="13" t="s">
@@ -1179,33 +1181,33 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="29">
-      <c r="A5" s="15"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="13" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="29">
-      <c r="A6" s="15"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="28" customHeight="1">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="29">
-      <c r="A8" s="15"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="29">
-      <c r="A9" s="15"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="13" t="s">
         <v>39</v>
       </c>
@@ -1259,37 +1261,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="59.90625" customWidth="1"/>
-    <col min="2" max="2" width="54.08984375" customWidth="1"/>
-    <col min="3" max="3" width="51.6328125" customWidth="1"/>
-    <col min="4" max="4" width="51.54296875" customWidth="1"/>
+    <col min="1" max="1" width="45.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="381" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
+    <row r="2" spans="1:1" ht="229.5" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1325,6 +1314,42 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="59.90625" customWidth="1"/>
+    <col min="2" max="2" width="54.08984375" customWidth="1"/>
+    <col min="3" max="3" width="51.6328125" customWidth="1"/>
+    <col min="4" max="4" width="51.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="381" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView topLeftCell="B2" workbookViewId="0">
@@ -1384,7 +1409,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1396,7 +1421,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1418,7 +1443,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1428,27 +1453,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="45.453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:1" ht="229.5" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Topics & content.xlsx
+++ b/Topics & content.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="9730" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="9730"/>
   </bookViews>
   <sheets>
     <sheet name="Core Java_SCJP" sheetId="6" r:id="rId1"/>
@@ -1068,7 +1068,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1078,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1092,7 +1092,7 @@
     <col min="6" max="6" width="29.6328125" customWidth="1"/>
     <col min="7" max="7" width="124.453125" customWidth="1"/>
     <col min="8" max="8" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.36328125" customWidth="1"/>
+    <col min="9" max="9" width="62.90625" customWidth="1"/>
     <col min="10" max="10" width="17.36328125" customWidth="1"/>
     <col min="11" max="11" width="24" customWidth="1"/>
     <col min="12" max="12" width="15.54296875" bestFit="1" customWidth="1"/>
@@ -1263,8 +1263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/Topics & content.xlsx
+++ b/Topics & content.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="9730"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="9730" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Core Java_SCJP" sheetId="6" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="JDBC" sheetId="3" r:id="rId7"/>
     <sheet name="Servlets" sheetId="4" r:id="rId8"/>
     <sheet name="Jsp" sheetId="5" r:id="rId9"/>
+    <sheet name="GIT" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t xml:space="preserve">Persistent object life cycle
 Connecting to multiple DB
@@ -635,6 +636,10 @@
 ArrayList
 HashMap
 Binary Search Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=OdbBmvfThJY&amp;list=PLsyeobzWxl7q2eaUkorLZExfd7qko9sZC
+</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1073,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1078,7 +1083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -1228,6 +1233,33 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId8"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="85" customWidth="1"/>
+    <col min="2" max="2" width="47.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="29">
+      <c r="A1" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/Topics & content.xlsx
+++ b/Topics & content.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santosh.kumarachary\MY_REPO\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="9730" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="9732"/>
   </bookViews>
   <sheets>
     <sheet name="Core Java_SCJP" sheetId="6" r:id="rId1"/>
@@ -19,8 +24,8 @@
     <sheet name="GIT" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t xml:space="preserve">Persistent object life cycle
 Connecting to multiple DB
@@ -641,12 +646,26 @@
     <t xml:space="preserve">https://www.youtube.com/watch?v=OdbBmvfThJY&amp;list=PLsyeobzWxl7q2eaUkorLZExfd7qko9sZC
 </t>
   </si>
+  <si>
+    <t>ARRAYS</t>
+  </si>
+  <si>
+    <t>Introductions
+Array Declaration
+Array Creation
+Array Initialization
+Array Declaration Creation Initialization in one line
+length vs length()
+Anonymous Arrays
+Array element assignment
+Array variable assignment</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -755,7 +774,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -796,6 +815,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -861,7 +883,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -896,7 +918,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1073,147 +1095,160 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="88" customWidth="1"/>
-    <col min="2" max="2" width="99.6328125" customWidth="1"/>
-    <col min="3" max="3" width="71.36328125" customWidth="1"/>
-    <col min="4" max="4" width="81.90625" customWidth="1"/>
-    <col min="5" max="5" width="82.453125" customWidth="1"/>
-    <col min="6" max="6" width="29.6328125" customWidth="1"/>
-    <col min="7" max="7" width="124.453125" customWidth="1"/>
-    <col min="8" max="8" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="62.90625" customWidth="1"/>
-    <col min="10" max="10" width="17.36328125" customWidth="1"/>
-    <col min="11" max="11" width="24" customWidth="1"/>
-    <col min="12" max="12" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="112.90625" customWidth="1"/>
-    <col min="14" max="14" width="36.26953125" customWidth="1"/>
-    <col min="15" max="15" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.453125" customWidth="1"/>
+    <col min="1" max="2" width="88" customWidth="1"/>
+    <col min="3" max="3" width="99.6640625" customWidth="1"/>
+    <col min="4" max="4" width="71.33203125" customWidth="1"/>
+    <col min="5" max="5" width="81.88671875" customWidth="1"/>
+    <col min="6" max="6" width="82.44140625" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" customWidth="1"/>
+    <col min="8" max="8" width="124.44140625" customWidth="1"/>
+    <col min="9" max="9" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="62.88671875" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" customWidth="1"/>
+    <col min="12" max="12" width="24" customWidth="1"/>
+    <col min="13" max="13" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="112.88671875" customWidth="1"/>
+    <col min="15" max="15" width="36.21875" customWidth="1"/>
+    <col min="16" max="16" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" customHeight="1">
+    <row r="1" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="409.5" customHeight="1">
+    <row r="2" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="M2" s="3" t="s">
+      <c r="G2" s="2"/>
+      <c r="N2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="22" customHeight="1">
+    <row r="3" spans="1:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="29">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="29">
-      <c r="A5" s="16"/>
-      <c r="B5" s="13" t="s">
+    <row r="5" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="29">
-      <c r="A6" s="16"/>
-      <c r="B6" s="13" t="s">
+    <row r="6" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="28" customHeight="1">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:15" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="29">
-      <c r="A8" s="16"/>
-      <c r="B8" s="13" t="s">
+    <row r="8" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="17"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="29">
-      <c r="A9" s="16"/>
-      <c r="B9" s="13" t="s">
+    <row r="9" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="13" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1223,13 +1258,13 @@
     <mergeCell ref="A7:A9"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
-    <hyperlink ref="B5" r:id="rId3"/>
-    <hyperlink ref="B6" r:id="rId4"/>
-    <hyperlink ref="B7" r:id="rId5"/>
-    <hyperlink ref="B8" r:id="rId6" location="axzz5fSbEFhFx&#10;"/>
-    <hyperlink ref="B9" r:id="rId7"/>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
+    <hyperlink ref="C6" r:id="rId4"/>
+    <hyperlink ref="C7" r:id="rId5"/>
+    <hyperlink ref="C8" r:id="rId6" location="axzz5fSbEFhFx_x000a_"/>
+    <hyperlink ref="C9" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId8"/>
@@ -1237,20 +1272,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="85" customWidth="1"/>
-    <col min="2" max="2" width="47.90625" customWidth="1"/>
+    <col min="2" max="2" width="47.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="29">
+    <row r="1" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>45</v>
       </c>
@@ -1264,20 +1299,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="102.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="103.90625" customWidth="1"/>
+    <col min="1" max="1" width="102.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="103.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="406.5" customHeight="1">
+    <row r="1" spans="1:2" ht="406.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>11</v>
       </c>
@@ -1292,19 +1327,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.453125" customWidth="1"/>
+    <col min="1" max="1" width="45.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" ht="229.5" customHeight="1">
+    <row r="2" spans="1:1" ht="229.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>44</v>
       </c>
@@ -1315,19 +1350,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="58" customWidth="1"/>
-    <col min="2" max="2" width="42.08984375" customWidth="1"/>
-    <col min="3" max="3" width="42.1796875" customWidth="1"/>
+    <col min="2" max="2" width="42.109375" customWidth="1"/>
+    <col min="3" max="3" width="42.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="249.65" customHeight="1">
+    <row r="1" spans="1:3" ht="249.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
@@ -1345,22 +1380,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="59.90625" customWidth="1"/>
-    <col min="2" max="2" width="54.08984375" customWidth="1"/>
-    <col min="3" max="3" width="51.6328125" customWidth="1"/>
-    <col min="4" max="4" width="51.54296875" customWidth="1"/>
+    <col min="1" max="1" width="59.88671875" customWidth="1"/>
+    <col min="2" max="2" width="54.109375" customWidth="1"/>
+    <col min="3" max="3" width="51.6640625" customWidth="1"/>
+    <col min="4" max="4" width="51.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="381" customHeight="1">
+    <row r="1" spans="1:4" ht="381" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1381,22 +1416,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView topLeftCell="B2" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.54296875" customWidth="1"/>
-    <col min="2" max="2" width="57.6328125" customWidth="1"/>
-    <col min="3" max="3" width="44.54296875" customWidth="1"/>
-    <col min="4" max="4" width="52.08984375" customWidth="1"/>
+    <col min="1" max="1" width="55.5546875" customWidth="1"/>
+    <col min="2" max="2" width="57.6640625" customWidth="1"/>
+    <col min="3" max="3" width="44.5546875" customWidth="1"/>
+    <col min="4" max="4" width="52.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -1415,7 +1450,7 @@
       <c r="H1" s="7"/>
       <c r="I1" s="8"/>
     </row>
-    <row r="2" spans="1:10" ht="407.25" customHeight="1">
+    <row r="2" spans="1:10" ht="407.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -1442,29 +1477,29 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="74.6328125" customWidth="1"/>
+    <col min="1" max="1" width="74.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="409.5" customHeight="1">
+    <row r="1" spans="1:1" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -1476,12 +1511,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Topics & content.xlsx
+++ b/Topics & content.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="9732"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="9732" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Core Java_SCJP" sheetId="6" r:id="rId1"/>
@@ -434,15 +434,6 @@
       Decorator Pattern</t>
   </si>
   <si>
-    <t xml:space="preserve">Creational Design Patterns
-      Singleton Pattern
-      Factory Pattern
-      Abstract Factory Pattern
-      Builder Pattern
-      Prototype Pattern
-</t>
-  </si>
-  <si>
     <t>Behavioral Design Patterns
       Template Method Pattern
       Mediator Pattern
@@ -659,6 +650,38 @@
 Anonymous Arrays
 Array element assignment
 Array variable assignment</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Creational Design Patterns
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Singleton Pattern</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      Factory Pattern
+      Abstract Factory Pattern
+      Builder Pattern
+      Prototype Pattern
+</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1105,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1137,7 +1160,7 @@
         <v>20</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>23</v>
@@ -1172,84 +1195,84 @@
         <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2" s="2"/>
       <c r="N2" s="3" t="s">
         <v>24</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="16"/>
       <c r="C5" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="16"/>
       <c r="C6" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
       <c r="B8" s="16"/>
       <c r="C8" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="B9" s="16"/>
       <c r="C9" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1287,7 +1310,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1341,7 +1364,7 @@
   <sheetData>
     <row r="2" spans="1:1" ht="229.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1353,7 +1376,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1364,13 +1389,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="249.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Topics & content.xlsx
+++ b/Topics & content.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="9732" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="9732"/>
   </bookViews>
   <sheets>
     <sheet name="Core Java_SCJP" sheetId="6" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t xml:space="preserve">Persistent object life cycle
 Connecting to multiple DB
@@ -407,9 +407,6 @@
     <t>OBJECT CLASS</t>
   </si>
   <si>
-    <t>ACCESS MODIFIERS</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.public final Class&lt;?&gt; getClass()
 2.public int hashCode()
 3.public boolean equals(Object obj)
@@ -556,39 +553,6 @@
      ThreadLocal</t>
   </si>
   <si>
-    <t xml:space="preserve">1.class level modifier
-  for outer class
-     publlic
-     default
-     abstract
-     final
-     strictfp
-  for inner class
-     publlic
-     default
-     abstract
-     final
-     strictfp
-          +
-     private
-     protected
-     static
-2.member level modifier
-     publlic
-     private
-     default
-     protected
-     abstract
-     final
-     strictfp
-     static
-     synchronized
-     native
-     transient
-     volatile
-     </t>
-  </si>
-  <si>
     <t>1.introduction
 2.Interface declaration and implemenation
 3.extends vs implements
@@ -682,6 +646,67 @@
       Prototype Pattern
 </t>
     </r>
+  </si>
+  <si>
+    <t>TYPES OF VARIABLE</t>
+  </si>
+  <si>
+    <t>Primitive variable
+Reference variable
+Instance variable
+static variable
+Local Variable</t>
+  </si>
+  <si>
+    <t>GARBAGE COLLECTION</t>
+  </si>
+  <si>
+    <t>OTHERS</t>
+  </si>
+  <si>
+    <t>VAR-ARG Methods
+Public Static void main(String []args) 
+Command Line Argument
+Java Coding Standards
+Operators and Assignment
+Flow Control</t>
+  </si>
+  <si>
+    <t>DECLARATION AND ACCESS MODIFIERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Java Source FIle Structure
+2.class level modifier
+  for outer class
+     publlic
+     default
+     abstract
+     final
+     strictfp
+  for inner class
+     publlic
+     default
+     abstract
+     final
+     strictfp
+          +
+     private
+     protected
+     static
+3.member level modifier
+     publlic
+     private
+     default
+     protected
+     abstract
+     final
+     strictfp
+     static
+     synchronized
+     native
+     transient
+     volatile
+     </t>
   </si>
 </sst>
 </file>
@@ -797,7 +822,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -838,6 +863,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1126,153 +1154,183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="88" customWidth="1"/>
-    <col min="3" max="3" width="99.6640625" customWidth="1"/>
-    <col min="4" max="4" width="71.33203125" customWidth="1"/>
-    <col min="5" max="5" width="81.88671875" customWidth="1"/>
-    <col min="6" max="6" width="82.44140625" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" customWidth="1"/>
-    <col min="8" max="8" width="124.44140625" customWidth="1"/>
-    <col min="9" max="9" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="62.88671875" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" customWidth="1"/>
-    <col min="12" max="12" width="24" customWidth="1"/>
-    <col min="13" max="13" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="112.88671875" customWidth="1"/>
-    <col min="15" max="15" width="36.21875" customWidth="1"/>
-    <col min="16" max="16" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.44140625" customWidth="1"/>
+    <col min="1" max="4" width="88" customWidth="1"/>
+    <col min="5" max="5" width="99.6640625" customWidth="1"/>
+    <col min="6" max="7" width="71.33203125" customWidth="1"/>
+    <col min="8" max="9" width="81.88671875" customWidth="1"/>
+    <col min="10" max="10" width="82.44140625" customWidth="1"/>
+    <col min="11" max="11" width="29.6640625" customWidth="1"/>
+    <col min="12" max="12" width="124.44140625" customWidth="1"/>
+    <col min="13" max="13" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="62.88671875" customWidth="1"/>
+    <col min="15" max="15" width="17.33203125" customWidth="1"/>
+    <col min="16" max="16" width="24" customWidth="1"/>
+    <col min="17" max="17" width="58.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="112.88671875" customWidth="1"/>
+    <col min="19" max="19" width="36.21875" customWidth="1"/>
+    <col min="20" max="20" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="I1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="Q2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>15</v>
+      <c r="R2" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="N2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="3" t="s">
+    <row r="3" spans="1:18" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="12" t="s">
         <v>28</v>
       </c>
+      <c r="J3" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+    <row r="4" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="18"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="18"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>27</v>
-      </c>
     </row>
-    <row r="4" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="13" t="s">
-        <v>30</v>
+    <row r="7" spans="1:18" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="15" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="13" t="s">
-        <v>32</v>
+    <row r="8" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="18"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="13" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="13" t="s">
+    <row r="9" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="18"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="13" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="13" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1281,13 +1339,13 @@
     <mergeCell ref="A7:A9"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="C4" r:id="rId2"/>
-    <hyperlink ref="C5" r:id="rId3"/>
-    <hyperlink ref="C6" r:id="rId4"/>
-    <hyperlink ref="C7" r:id="rId5"/>
-    <hyperlink ref="C8" r:id="rId6" location="axzz5fSbEFhFx_x000a_"/>
-    <hyperlink ref="C9" r:id="rId7"/>
+    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId2"/>
+    <hyperlink ref="E5" r:id="rId3"/>
+    <hyperlink ref="E6" r:id="rId4"/>
+    <hyperlink ref="E7" r:id="rId5"/>
+    <hyperlink ref="E8" r:id="rId6" location="axzz5fSbEFhFx_x000a_"/>
+    <hyperlink ref="E9" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId8"/>
@@ -1310,7 +1368,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1326,7 +1384,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1364,7 +1422,7 @@
   <sheetData>
     <row r="2" spans="1:1" ht="229.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1376,7 +1434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1389,13 +1447,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="249.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Topics & content.xlsx
+++ b/Topics & content.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santosh.kumarachary\MY_REPO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\REPO\MY_REPO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CFB0B7-4B96-4B7B-9ACB-A5A6D618249C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="9732"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Core Java_SCJP" sheetId="6" r:id="rId1"/>
@@ -407,20 +408,6 @@
     <t>OBJECT CLASS</t>
   </si>
   <si>
-    <t xml:space="preserve">1.public final Class&lt;?&gt; getClass()
-2.public int hashCode()
-3.public boolean equals(Object obj)
-4.protected Object clone() throws CloneNotSupportedException
-5.public String toString()
-6.protected void finalize() throws Throwable
-7.public final void wait() throws InterruptedException
-8.public final void wait(long timeout) throws InterruptedException
-9.public final void wait(long timeout,int nanos) throws InterruptedException
-10.public final void notify()
-11.public final void notifyAll()
-</t>
-  </si>
-  <si>
     <t>Structural Design Patterns
       Adapter Pattern
       Composite Pattern
@@ -708,11 +695,25 @@
      volatile
      </t>
   </si>
+  <si>
+    <t xml:space="preserve">1.public String toString()
+2.public int hashCode()
+3.public boolean equals(Object obj)
+4.protected Object clone() throws CloneNotSupportedException
+5.public final Class&lt;?&gt; getClass()
+6.protected void finalize() throws Throwable
+7.public final void wait() throws InterruptedException
+8.public final void wait(long timeout) throws InterruptedException
+9.public final void wait(long timeout,int nanos) throws InterruptedException
+10.public final void notify()
+11.public final void notifyAll()
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1153,48 +1154,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="J2" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="4" width="88" customWidth="1"/>
-    <col min="5" max="5" width="99.6640625" customWidth="1"/>
-    <col min="6" max="7" width="71.33203125" customWidth="1"/>
-    <col min="8" max="9" width="81.88671875" customWidth="1"/>
-    <col min="10" max="10" width="82.44140625" customWidth="1"/>
-    <col min="11" max="11" width="29.6640625" customWidth="1"/>
-    <col min="12" max="12" width="124.44140625" customWidth="1"/>
-    <col min="13" max="13" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="62.88671875" customWidth="1"/>
-    <col min="15" max="15" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="99.6328125" customWidth="1"/>
+    <col min="6" max="7" width="71.36328125" customWidth="1"/>
+    <col min="8" max="9" width="81.90625" customWidth="1"/>
+    <col min="10" max="10" width="82.453125" customWidth="1"/>
+    <col min="11" max="11" width="80.6328125" customWidth="1"/>
+    <col min="12" max="12" width="124.453125" customWidth="1"/>
+    <col min="13" max="13" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="62.90625" customWidth="1"/>
+    <col min="15" max="15" width="17.36328125" customWidth="1"/>
     <col min="16" max="16" width="24" customWidth="1"/>
-    <col min="17" max="17" width="58.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="112.88671875" customWidth="1"/>
-    <col min="19" max="19" width="36.21875" customWidth="1"/>
-    <col min="20" max="20" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="58.08984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="112.90625" customWidth="1"/>
+    <col min="19" max="19" width="36.1796875" customWidth="1"/>
+    <col min="20" max="20" width="25.54296875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="20" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.44140625" customWidth="1"/>
+    <col min="22" max="22" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>19</v>
@@ -1203,7 +1204,7 @@
         <v>18</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>20</v>
@@ -1227,110 +1228,110 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J2" s="2"/>
-      <c r="Q2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>27</v>
+      <c r="K2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
       <c r="E4" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="18"/>
       <c r="B5" s="16"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
       <c r="E5" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="18"/>
       <c r="B6" s="16"/>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
       <c r="E6" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="18" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
-        <v>34</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
       <c r="E7" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="18"/>
       <c r="B8" s="16"/>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
       <c r="E8" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="18"/>
       <c r="B9" s="16"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
       <c r="E9" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1339,13 +1340,13 @@
     <mergeCell ref="A7:A9"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
-    <hyperlink ref="E4" r:id="rId2"/>
-    <hyperlink ref="E5" r:id="rId3"/>
-    <hyperlink ref="E6" r:id="rId4"/>
-    <hyperlink ref="E7" r:id="rId5"/>
-    <hyperlink ref="E8" r:id="rId6" location="axzz5fSbEFhFx_x000a_"/>
-    <hyperlink ref="E9" r:id="rId7"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E8" r:id="rId6" location="axzz5fSbEFhFx_x000a_" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId8"/>
@@ -1353,47 +1354,47 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="85" customWidth="1"/>
-    <col min="2" max="2" width="47.88671875" customWidth="1"/>
+    <col min="2" max="2" width="47.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="102.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="103.88671875" customWidth="1"/>
+    <col min="1" max="1" width="102.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="103.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="406.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="406.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>11</v>
       </c>
@@ -1408,21 +1409,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.44140625" customWidth="1"/>
+    <col min="1" max="1" width="45.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" ht="229.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="229.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1431,29 +1432,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="58" customWidth="1"/>
-    <col min="2" max="2" width="42.109375" customWidth="1"/>
-    <col min="3" max="3" width="42.21875" customWidth="1"/>
+    <col min="2" max="2" width="42.08984375" customWidth="1"/>
+    <col min="3" max="3" width="42.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="249.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="249.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1463,22 +1464,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="59.88671875" customWidth="1"/>
-    <col min="2" max="2" width="54.109375" customWidth="1"/>
-    <col min="3" max="3" width="51.6640625" customWidth="1"/>
-    <col min="4" max="4" width="51.5546875" customWidth="1"/>
+    <col min="1" max="1" width="59.90625" customWidth="1"/>
+    <col min="2" max="2" width="54.08984375" customWidth="1"/>
+    <col min="3" max="3" width="51.6328125" customWidth="1"/>
+    <col min="4" max="4" width="51.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="381" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="381" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1499,22 +1500,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView topLeftCell="B2" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="55.5546875" customWidth="1"/>
-    <col min="2" max="2" width="57.6640625" customWidth="1"/>
-    <col min="3" max="3" width="44.5546875" customWidth="1"/>
-    <col min="4" max="4" width="52.109375" customWidth="1"/>
+    <col min="1" max="1" width="55.54296875" customWidth="1"/>
+    <col min="2" max="2" width="57.6328125" customWidth="1"/>
+    <col min="3" max="3" width="44.54296875" customWidth="1"/>
+    <col min="4" max="4" width="52.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -1533,7 +1534,7 @@
       <c r="H1" s="7"/>
       <c r="I1" s="8"/>
     </row>
-    <row r="2" spans="1:10" ht="407.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="407.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -1560,29 +1561,29 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="74.6640625" customWidth="1"/>
+    <col min="1" max="1" width="74.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -1594,12 +1595,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Topics & content.xlsx
+++ b/Topics & content.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\REPO\MY_REPO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CFB0B7-4B96-4B7B-9ACB-A5A6D618249C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA5160C-BCDB-4E7B-87D8-CB7BC645802A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Core Java_SCJP" sheetId="6" r:id="rId1"/>
@@ -19,10 +19,7 @@
     <sheet name="Design Pattern" sheetId="9" r:id="rId4"/>
     <sheet name="Hibernate" sheetId="1" r:id="rId5"/>
     <sheet name="Spring" sheetId="2" r:id="rId6"/>
-    <sheet name="JDBC" sheetId="3" r:id="rId7"/>
-    <sheet name="Servlets" sheetId="4" r:id="rId8"/>
-    <sheet name="Jsp" sheetId="5" r:id="rId9"/>
-    <sheet name="GIT" sheetId="11" r:id="rId10"/>
+    <sheet name="GIT" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -34,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t xml:space="preserve">Persistent object life cycle
 Connecting to multiple DB
@@ -208,26 +205,6 @@
 Mapbasedinjection
 Innerbeans
 Dependency lookup 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">web client
-web server
-functions and limitations of web server 
-Server side programming
-common duties of server side program
-What is Servlet
-Web Container
-Servlet Container
-What is a servlet
-servlet  can do in a web application
-General structure of Servlet
-Lifecycle of Servlet
-     Instantiation phase
-     Initialization phase
-     Servicing  phase
-     Destruction phase
-Steps of creating a web application using servlet
 </t>
   </si>
   <si>
@@ -405,9 +382,6 @@
     <t>STRING</t>
   </si>
   <si>
-    <t>OBJECT CLASS</t>
-  </si>
-  <si>
     <t>Structural Design Patterns
       Adapter Pattern
       Composite Pattern
@@ -708,6 +682,9 @@
 10.public final void notify()
 11.public final void notifyAll()
 </t>
+  </si>
+  <si>
+    <t>OBJECT CLASS METHODS</t>
   </si>
 </sst>
 </file>
@@ -823,7 +800,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -873,6 +850,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1157,8 +1135,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J2" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1184,107 +1163,109 @@
     <col min="25" max="25" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="H1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
     </row>
     <row r="2" spans="1:18" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>26</v>
+        <v>50</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
       <c r="E4" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="29" x14ac:dyDescent="0.35">
@@ -1293,7 +1274,7 @@
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
       <c r="E5" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="29" x14ac:dyDescent="0.35">
@@ -1302,18 +1283,18 @@
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
       <c r="E6" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
       <c r="E7" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="29" x14ac:dyDescent="0.35">
@@ -1322,7 +1303,7 @@
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
       <c r="E8" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="29" x14ac:dyDescent="0.35">
@@ -1331,7 +1312,7 @@
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
       <c r="E9" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1353,33 +1334,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="85" customWidth="1"/>
-    <col min="2" max="2" width="47.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B1"/>
@@ -1396,10 +1350,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="406.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1423,7 +1377,7 @@
   <sheetData>
     <row r="2" spans="1:1" ht="229.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1448,13 +1402,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="249.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1561,47 +1515,28 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="74.6328125" customWidth="1"/>
+    <col min="1" max="1" width="85" customWidth="1"/>
+    <col min="2" max="2" width="47.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>10</v>
+    <row r="1" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Topics & content.xlsx
+++ b/Topics & content.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\REPO\MY_REPO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA5160C-BCDB-4E7B-87D8-CB7BC645802A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0080F8A4-517B-4F83-88FC-CC04612D8D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Core Java_SCJP" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t xml:space="preserve">Persistent object life cycle
 Connecting to multiple DB
@@ -229,20 +229,6 @@
 Write a program to find the given number is Armstrong number or not?
 Write a program to convert binary to decimal number.
 Write a program to check the given number is binary number or not?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a program for Bubble Sort in java.
-Write a program for Insertion Sort in java.
-Write a program to implement hashcode and equals.
-How to get distinct elements from an array by avoiding duplicate elements?
-Write a program to get distinct word list from the given file.
-Write a program to get a line with max word count from the given file.
-Write a program to convert string to number without using Integer.parseInt() method.
-Write a program to find two lines with max characters in descending order.
-Write a program to find the sum of the first 1000 prime numbers.
-Find longest substring without repeating characters.
-Write a program to remove duplicates from sorted array.
 </t>
   </si>
   <si>
@@ -685,6 +671,20 @@
   </si>
   <si>
     <t>OBJECT CLASS METHODS</t>
+  </si>
+  <si>
+    <t>PERSONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Java Memory Management   
+https://www.youtube.com/watch?v=aAjkJW08BGQ
+2.Memory Leak how to manage
+https://www.youtube.com/watch?v=1ksJpgk1HIc
+3.use of static
+4.volatile
+5.Abstraction,Data hiding,Encapsulation,composition,Aggregation
+6.Hashmap internal structure
+</t>
   </si>
 </sst>
 </file>
@@ -800,7 +800,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -847,10 +847,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1135,9 +1138,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1154,7 +1157,7 @@
     <col min="15" max="15" width="17.36328125" customWidth="1"/>
     <col min="16" max="16" width="24" customWidth="1"/>
     <col min="17" max="17" width="58.08984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="112.90625" customWidth="1"/>
+    <col min="18" max="18" width="52" customWidth="1"/>
     <col min="19" max="19" width="36.1796875" customWidth="1"/>
     <col min="20" max="20" width="25.54296875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="20" bestFit="1" customWidth="1"/>
@@ -1165,154 +1168,159 @@
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="19" t="s">
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
     </row>
     <row r="2" spans="1:18" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="R2" s="19" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="18" t="s">
-        <v>27</v>
+      <c r="A4" s="20" t="s">
+        <v>26</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
       <c r="E4" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="18"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="16"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
       <c r="E5" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="18"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="16"/>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
       <c r="E6" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="18" t="s">
-        <v>31</v>
+      <c r="A7" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
       <c r="E7" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="18"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="16"/>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
       <c r="E8" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="18"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="16"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
       <c r="E9" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1352,9 +1360,7 @@
       <c r="A1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B1" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1377,7 +1383,7 @@
   <sheetData>
     <row r="2" spans="1:1" ht="229.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1402,13 +1408,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="249.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1518,7 +1524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1530,7 +1536,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Topics & content.xlsx
+++ b/Topics & content.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\REPO\MY_REPO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0080F8A4-517B-4F83-88FC-CC04612D8D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E787CD2-1B88-41F5-BC76-6F930829882C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t xml:space="preserve">Persistent object life cycle
 Connecting to multiple DB
@@ -442,21 +442,12 @@
 </t>
   </si>
   <si>
-    <t>encapsulation</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=YX1UoMz3_1Y
 </t>
   </si>
   <si>
-    <t>java interview questions</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=1Q4I63-hKcY
 </t>
-  </si>
-  <si>
-    <t>Abstraction</t>
   </si>
   <si>
     <t>https://javarevisited.blogspot.com/2013/04/10-abstract-class-and-interface-interview-question-java-answers.html</t>
@@ -684,6 +675,18 @@
 4.volatile
 5.Abstraction,Data hiding,Encapsulation,composition,Aggregation
 6.Hashmap internal structure
+</t>
+  </si>
+  <si>
+    <t>INTERVIEW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">static methods
+Default Methods
+Streams
+Rest
+Spring Boot
+Spring Security
 </t>
   </si>
 </sst>
@@ -1136,11 +1139,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R2" sqref="R2"/>
+      <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1158,7 +1161,7 @@
     <col min="16" max="16" width="24" customWidth="1"/>
     <col min="17" max="17" width="58.08984375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="52" customWidth="1"/>
-    <col min="19" max="19" width="36.1796875" customWidth="1"/>
+    <col min="19" max="19" width="51.08984375" customWidth="1"/>
     <col min="20" max="20" width="25.54296875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="20" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12.54296875" bestFit="1" customWidth="1"/>
@@ -1166,18 +1169,18 @@
     <col min="25" max="25" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>45</v>
-      </c>
       <c r="D1" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>17</v>
@@ -1186,7 +1189,7 @@
         <v>16</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>18</v>
@@ -1195,7 +1198,7 @@
         <v>11</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>15</v>
@@ -1211,50 +1214,54 @@
       </c>
       <c r="Q1" s="6"/>
       <c r="R1" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:19" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="R2" s="19" t="s">
-        <v>52</v>
+        <v>49</v>
+      </c>
+      <c r="S2" s="19" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
-        <v>28</v>
-      </c>
+    <row r="3" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="14"/>
       <c r="B3" s="16"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -1265,10 +1272,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="20" t="s">
-        <v>26</v>
-      </c>
+    <row r="4" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="20"/>
       <c r="B4" s="16"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -1276,51 +1281,49 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="20"/>
       <c r="B5" s="16"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
       <c r="E5" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="20"/>
       <c r="B6" s="16"/>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
       <c r="E6" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="20" t="s">
-        <v>30</v>
-      </c>
+    <row r="7" spans="1:19" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="20"/>
       <c r="B7" s="16"/>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
       <c r="E7" s="15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="20"/>
       <c r="B8" s="16"/>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
       <c r="E8" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="20"/>
       <c r="B9" s="16"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
       <c r="E9" s="13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1383,7 +1386,7 @@
   <sheetData>
     <row r="2" spans="1:1" ht="229.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1408,7 +1411,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="249.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>20</v>
@@ -1536,7 +1539,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Topics & content.xlsx
+++ b/Topics & content.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\REPO\MY_REPO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E787CD2-1B88-41F5-BC76-6F930829882C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5A3148-A7E3-45DC-919B-3A45892126F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Core Java_SCJP" sheetId="6" r:id="rId1"/>
-    <sheet name="core java programs" sheetId="8" r:id="rId2"/>
-    <sheet name="Data Structures" sheetId="10" r:id="rId3"/>
-    <sheet name="Design Pattern" sheetId="9" r:id="rId4"/>
-    <sheet name="Hibernate" sheetId="1" r:id="rId5"/>
-    <sheet name="Spring" sheetId="2" r:id="rId6"/>
-    <sheet name="GIT" sheetId="11" r:id="rId7"/>
+    <sheet name="Company" sheetId="12" r:id="rId2"/>
+    <sheet name="Interview" sheetId="13" r:id="rId3"/>
+    <sheet name="core java programs" sheetId="8" r:id="rId4"/>
+    <sheet name="Data Structures" sheetId="10" r:id="rId5"/>
+    <sheet name="Design Pattern" sheetId="9" r:id="rId6"/>
+    <sheet name="Hibernate" sheetId="1" r:id="rId7"/>
+    <sheet name="Spring" sheetId="2" r:id="rId8"/>
+    <sheet name="GIT" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t xml:space="preserve">Persistent object life cycle
 Connecting to multiple DB
@@ -688,6 +690,12 @@
 Spring Boot
 Spring Security
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coforge </t>
+  </si>
+  <si>
+    <t>pending</t>
   </si>
 </sst>
 </file>
@@ -789,12 +797,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -803,7 +826,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -854,6 +877,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1141,9 +1165,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E3:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1265,87 +1289,233 @@
       <c r="B3" s="16"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
-      <c r="E3" s="12" t="s">
-        <v>24</v>
-      </c>
       <c r="J3" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A4" s="21"/>
       <c r="B4" s="16"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
-      <c r="E4" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="20"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A5" s="21"/>
       <c r="B5" s="16"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
-      <c r="E5" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="20"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A6" s="21"/>
       <c r="B6" s="16"/>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
-      <c r="E6" s="13" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="7" spans="1:19" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="20"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="16"/>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
-      <c r="E7" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="20"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A8" s="21"/>
       <c r="B8" s="16"/>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
-      <c r="E8" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="20"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A9" s="21"/>
       <c r="B9" s="16"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
-      <c r="E9" s="13" t="s">
-        <v>30</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="E8" r:id="rId6" location="axzz5fSbEFhFx_x000a_" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="E9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A88334BD-9067-46F9-B506-3E43DAD95CA4}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.26953125" customWidth="1"/>
+    <col min="2" max="2" width="75.7265625" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA1B77F5-4775-4A29-A188-CBD938443A99}">
+  <dimension ref="B2:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="96.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B3" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B4" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B5" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B6" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B7" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B8" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" location="axzz5fSbEFhFx_x000a_" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -1371,7 +1541,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2"/>
   <sheetViews>
@@ -1394,7 +1564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -1426,7 +1596,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -1462,7 +1632,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -1523,12 +1693,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Topics & content.xlsx
+++ b/Topics & content.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\REPO\MY_REPO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5A3148-A7E3-45DC-919B-3A45892126F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C15FB9-3D31-42A6-A1F4-21C332A1A5DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Core Java_SCJP" sheetId="6" r:id="rId1"/>
@@ -556,38 +556,6 @@
 Array variable assignment</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Creational Design Patterns
-      </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Singleton Pattern</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-      Factory Pattern
-      Abstract Factory Pattern
-      Builder Pattern
-      Prototype Pattern
-</t>
-    </r>
-  </si>
-  <si>
     <t>TYPES OF VARIABLE</t>
   </si>
   <si>
@@ -696,6 +664,60 @@
   </si>
   <si>
     <t>pending</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Creational Design Patterns
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Singleton Pattern</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      Factory Pattern
+      Abstract Factory Pattern
+      Builder Pattern
+      Prototype Pattern
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1198,13 +1220,13 @@
         <v>36</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>17</v>
@@ -1213,7 +1235,7 @@
         <v>16</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>18</v>
@@ -1222,7 +1244,7 @@
         <v>11</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>15</v>
@@ -1238,10 +1260,10 @@
       </c>
       <c r="Q1" s="6"/>
       <c r="R1" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1249,13 +1271,13 @@
         <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>32</v>
@@ -1272,16 +1294,16 @@
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="R2" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S2" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.35">
@@ -1356,10 +1378,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>52</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>53</v>
       </c>
       <c r="C1" s="20"/>
     </row>
@@ -1457,7 +1479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA1B77F5-4775-4A29-A188-CBD938443A99}">
   <dimension ref="B2:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -1568,9 +1590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1581,7 +1601,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="249.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>20</v>

--- a/Topics & content.xlsx
+++ b/Topics & content.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\REPO\MY_REPO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C15FB9-3D31-42A6-A1F4-21C332A1A5DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9639B6B-9650-4B05-A336-185F4B2A0B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Core Java_SCJP" sheetId="6" r:id="rId1"/>
@@ -1567,7 +1567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1590,7 +1590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/Topics & content.xlsx
+++ b/Topics & content.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\REPO\MY_REPO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9639B6B-9650-4B05-A336-185F4B2A0B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A382B0-ED85-45C1-97C9-A95E7156B644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Core Java_SCJP" sheetId="6" r:id="rId1"/>
@@ -368,30 +368,6 @@
   </si>
   <si>
     <t>STRING</t>
-  </si>
-  <si>
-    <t>Structural Design Patterns
-      Adapter Pattern
-      Composite Pattern
-      Proxy Pattern
-      Flyweight Pattern
-      Facade Pattern
-      Bridge Pattern
-      Decorator Pattern</t>
-  </si>
-  <si>
-    <t>Behavioral Design Patterns
-      Template Method Pattern
-      Mediator Pattern
-      Chain of Responsibility Pattern
-      Observer Pattern
-      Strategy Pattern
-      Command Pattern
-      State Pattern
-      Visitor Pattern
-      Interpreter Pattern
-      Iterator Pattern
-      Memento Pattern</t>
   </si>
   <si>
     <t xml:space="preserve">1. How does HashMap work in Java?
@@ -717,6 +693,118 @@
       </rPr>
       <t xml:space="preserve">
 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Structural Design Patterns
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Adapter Pattern</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      Composite Pattern
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Proxy Pattern</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      Flyweight Pattern
+      Facade Pattern
+      Bridge Pattern
+      Decorator Pattern</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Behavioral Design Patterns
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Template Method Pattern</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      Mediator Pattern
+      Chain of Responsibility Pattern
+      Observer Pattern
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Strategy Pattern</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      Command Pattern
+      State Pattern
+      Visitor Pattern
+      Interpreter Pattern
+      Iterator Pattern
+      Memento Pattern</t>
     </r>
   </si>
 </sst>
@@ -1217,16 +1305,16 @@
   <sheetData>
     <row r="1" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>38</v>
-      </c>
       <c r="C1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>17</v>
@@ -1235,7 +1323,7 @@
         <v>16</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>18</v>
@@ -1244,7 +1332,7 @@
         <v>11</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>15</v>
@@ -1260,50 +1348,50 @@
       </c>
       <c r="Q1" s="6"/>
       <c r="R1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="C2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R2" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="S2" s="19" t="s">
         <v>48</v>
-      </c>
-      <c r="S2" s="19" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.35">
@@ -1312,7 +1400,7 @@
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="J3" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
@@ -1378,10 +1466,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C1" s="20"/>
     </row>
@@ -1490,37 +1578,37 @@
   <sheetData>
     <row r="2" spans="2:2" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="29" x14ac:dyDescent="0.35">
       <c r="B3" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="29" x14ac:dyDescent="0.35">
       <c r="B4" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="29" x14ac:dyDescent="0.35">
       <c r="B5" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B6" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="29" x14ac:dyDescent="0.35">
       <c r="B7" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="29" x14ac:dyDescent="0.35">
       <c r="B8" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1567,7 +1655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1578,7 +1666,7 @@
   <sheetData>
     <row r="2" spans="1:1" ht="229.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1590,7 +1678,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1601,13 +1691,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="249.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1729,7 +1819,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
